--- a/result/with_base/34/arousal/s13_6.xlsx
+++ b/result/with_base/34/arousal/s13_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8575000166893005</v>
+        <v>0.8459821343421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41732.1484375</v>
+        <v>11264.74267578125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571590889583934</v>
+        <v>0.8571428586454952</v>
       </c>
       <c r="E2" t="n">
-        <v>41734.91122159091</v>
+        <v>11264.49661075368</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.862500011920929</v>
+        <v>0.87109375</v>
       </c>
       <c r="C3" t="n">
-        <v>40946.705078125</v>
+        <v>10943.74755859375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8888636339794506</v>
+        <v>0.8713235294117647</v>
       </c>
       <c r="E3" t="n">
-        <v>40946.06605113636</v>
+        <v>10943.63499540441</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.87890625</v>
       </c>
       <c r="C4" t="n">
-        <v>40171.953125</v>
+        <v>10629.44970703125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8993181803009727</v>
+        <v>0.8929884468807894</v>
       </c>
       <c r="E4" t="n">
-        <v>40171.00177556818</v>
+        <v>10629.19789751838</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39402.361328125</v>
+        <v>10323.63525390625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9260227246717974</v>
+        <v>0.9153098744504592</v>
       </c>
       <c r="E5" t="n">
-        <v>39402.92294034091</v>
+        <v>10323.42176011029</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38646.31640625</v>
+        <v>10025.65771484375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9384090954607184</v>
+        <v>0.9203650215092827</v>
       </c>
       <c r="E6" t="n">
-        <v>38646.03870738636</v>
+        <v>10025.28331801471</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.91796875</v>
       </c>
       <c r="C7" t="n">
-        <v>37902.8125</v>
+        <v>9734.3681640625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9342045458880338</v>
+        <v>0.9319196413545048</v>
       </c>
       <c r="E7" t="n">
-        <v>37901.8984375</v>
+        <v>9734.058708639706</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37168.947265625</v>
+        <v>9451.43505859375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9464772668751803</v>
+        <v>0.9283744762925541</v>
       </c>
       <c r="E8" t="n">
-        <v>37168.62215909091</v>
+        <v>9450.801011029413</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C9" t="n">
-        <v>36448.560546875</v>
+        <v>9174.66650390625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9576136307282881</v>
+        <v>0.9478072489009184</v>
       </c>
       <c r="E9" t="n">
-        <v>36448.12428977273</v>
+        <v>9174.204159007353</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35741.615234375</v>
+        <v>8906.564453125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.954772721637379</v>
+        <v>0.9357930667260114</v>
       </c>
       <c r="E10" t="n">
-        <v>35740.9609375</v>
+        <v>8905.784926470587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35046.0859375</v>
+        <v>8644.75927734375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9613636352799155</v>
+        <v>0.9375656527631423</v>
       </c>
       <c r="E11" t="n">
-        <v>35045.72123579546</v>
+        <v>8644.139476102941</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9375</v>
       </c>
       <c r="C12" t="n">
-        <v>34364.486328125</v>
+        <v>8389.8896484375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9646590839732777</v>
+        <v>0.9552258393343758</v>
       </c>
       <c r="E12" t="n">
-        <v>34362.90518465909</v>
+        <v>8389.355124080883</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C13" t="n">
-        <v>33693.8671875</v>
+        <v>8142.400146484375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9694318229501898</v>
+        <v>0.9523371843730702</v>
       </c>
       <c r="E13" t="n">
-        <v>33692.35475852273</v>
+        <v>8141.827751608456</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9375</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C14" t="n">
-        <v>33035.248046875</v>
+        <v>7901.578125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9687500054186041</v>
+        <v>0.9517463235294118</v>
       </c>
       <c r="E14" t="n">
-        <v>33034.40625</v>
+        <v>7901.055118336397</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32389.4443359375</v>
+        <v>7666.980224609375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9697727290066805</v>
+        <v>0.9697347704102012</v>
       </c>
       <c r="E15" t="n">
-        <v>32388.197265625</v>
+        <v>7666.548770680147</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C16" t="n">
-        <v>31753.94140625</v>
+        <v>7439.382080078125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9830681898377158</v>
+        <v>0.9514180667260114</v>
       </c>
       <c r="E16" t="n">
-        <v>31753.50497159091</v>
+        <v>7438.830767463235</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31132.611328125</v>
+        <v>7217.703857421875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9671590924263</v>
+        <v>0.9517463235294118</v>
       </c>
       <c r="E17" t="n">
-        <v>31131.18110795454</v>
+        <v>7217.183076746323</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C18" t="n">
-        <v>30520.68359375</v>
+        <v>7002.62939453125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9811363816261292</v>
+        <v>0.9288340351160835</v>
       </c>
       <c r="E18" t="n">
-        <v>30519.77397017046</v>
+        <v>7002.046501608456</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C19" t="n">
-        <v>29921.1123046875</v>
+        <v>6792.5078125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9810227372429587</v>
+        <v>0.9681591391563416</v>
       </c>
       <c r="E19" t="n">
-        <v>29920.16548295454</v>
+        <v>6792.057301240809</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29332.0947265625</v>
+        <v>6588.81787109375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9885227355090055</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E20" t="n">
-        <v>29331.47958096591</v>
+        <v>6588.411477481618</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C21" t="n">
-        <v>28755.0048828125</v>
+        <v>6390.970947265625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9750000130046498</v>
+        <v>0.9736738450386945</v>
       </c>
       <c r="E21" t="n">
-        <v>28754.14968039773</v>
+        <v>6390.449505974265</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.93359375</v>
       </c>
       <c r="C22" t="n">
-        <v>28187.7158203125</v>
+        <v>6198.46435546875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9879545569419861</v>
+        <v>0.9636948529411765</v>
       </c>
       <c r="E22" t="n">
-        <v>28187.02503551136</v>
+        <v>6198.011546415441</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27631.9541015625</v>
+        <v>6011.1962890625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9854545593261719</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E23" t="n">
-        <v>27630.88494318182</v>
+        <v>6010.779268152573</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C24" t="n">
-        <v>27085.896484375</v>
+        <v>5829.269287109375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9680934863931993</v>
       </c>
       <c r="E24" t="n">
-        <v>27084.94886363636</v>
+        <v>5828.905244715073</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26550.4912109375</v>
+        <v>5652.699462890625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9852272868156433</v>
+        <v>0.9558823529411765</v>
       </c>
       <c r="E25" t="n">
-        <v>26549.32581676136</v>
+        <v>5652.215102251838</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26024.4677734375</v>
+        <v>5480.5546875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.990000004118139</v>
+        <v>0.981026786215165</v>
       </c>
       <c r="E26" t="n">
-        <v>26023.68323863636</v>
+        <v>5480.232766544118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C27" t="n">
-        <v>25509.166015625</v>
+        <v>5313.756103515625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9792045517401262</v>
+        <v>0.9550288880572599</v>
       </c>
       <c r="E27" t="n">
-        <v>25508.12464488636</v>
+        <v>5313.363309972427</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25002.662109375</v>
+        <v>5151.27294921875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E28" t="n">
-        <v>25001.927734375</v>
+        <v>5150.929342830882</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24507.01171875</v>
+        <v>4993.58251953125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9854545593261719</v>
+        <v>0.9615283608436584</v>
       </c>
       <c r="E29" t="n">
-        <v>24505.49591619318</v>
+        <v>4993.253446691177</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C30" t="n">
-        <v>24019.076171875</v>
+        <v>4840.09130859375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E30" t="n">
-        <v>24018.22123579546</v>
+        <v>4839.862017463235</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.93359375</v>
       </c>
       <c r="C31" t="n">
-        <v>23541.1171875</v>
+        <v>4691.14599609375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9788602941176471</v>
       </c>
       <c r="E31" t="n">
-        <v>23540.23561789773</v>
+        <v>4690.887494255515</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23072.1953125</v>
+        <v>4546.708251953125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9564075645278481</v>
       </c>
       <c r="E32" t="n">
-        <v>23071.15376420454</v>
+        <v>4546.287051930147</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22612.4287109375</v>
+        <v>4405.914306640625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9674369762925541</v>
       </c>
       <c r="E33" t="n">
-        <v>22611.03018465909</v>
+        <v>4405.562184053309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9453125</v>
       </c>
       <c r="C34" t="n">
-        <v>22160.50390625</v>
+        <v>4269.017333984375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9904545545578003</v>
+        <v>0.9822741606656242</v>
       </c>
       <c r="E34" t="n">
-        <v>22159.52556818182</v>
+        <v>4268.849408318015</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C35" t="n">
-        <v>21717.7119140625</v>
+        <v>4136.288818359375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9861363768577576</v>
+        <v>0.9759716391563416</v>
       </c>
       <c r="E35" t="n">
-        <v>21716.61186079546</v>
+        <v>4136.117647058823</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21282.9248046875</v>
+        <v>4007.40185546875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9698004196671879</v>
       </c>
       <c r="E36" t="n">
-        <v>21282.05308948864</v>
+        <v>4007.185187844669</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.93359375</v>
       </c>
       <c r="C37" t="n">
-        <v>20855.9365234375</v>
+        <v>3882.152465820312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9682904411764706</v>
       </c>
       <c r="E37" t="n">
-        <v>20855.55486505682</v>
+        <v>3881.927949793198</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20438.67578125</v>
+        <v>3760.399047851562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.982272744178772</v>
+        <v>0.9725577726083643</v>
       </c>
       <c r="E38" t="n">
-        <v>20437.35404829546</v>
+        <v>3760.216768152573</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20027.1416015625</v>
+        <v>3642.163330078125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E39" t="n">
-        <v>20026.87038352273</v>
+        <v>3642.002312155331</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.93359375</v>
       </c>
       <c r="C40" t="n">
-        <v>19625.0166015625</v>
+        <v>3527.465454101562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9595588235294118</v>
       </c>
       <c r="E40" t="n">
-        <v>19624.28089488636</v>
+        <v>3527.273049747243</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.94140625</v>
       </c>
       <c r="C41" t="n">
-        <v>19229.8525390625</v>
+        <v>3415.924926757812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9585084038622239</v>
       </c>
       <c r="E41" t="n">
-        <v>19229.21768465909</v>
+        <v>3415.798167509191</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C42" t="n">
-        <v>18842.3603515625</v>
+        <v>3307.624755859375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9749212194891537</v>
       </c>
       <c r="E42" t="n">
-        <v>18841.70081676136</v>
+        <v>3307.462603400735</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9006696343421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18462.0986328125</v>
+        <v>3202.861572265625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9315913880572599</v>
       </c>
       <c r="E43" t="n">
-        <v>18461.47230113636</v>
+        <v>3202.561063878677</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18089.1494140625</v>
+        <v>3100.409057617188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.973214286215165</v>
       </c>
       <c r="E44" t="n">
-        <v>18088.49272017046</v>
+        <v>3100.272360409007</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17723.0634765625</v>
+        <v>3001.454833984375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.953387604040258</v>
       </c>
       <c r="E45" t="n">
-        <v>17722.51580255682</v>
+        <v>3001.261733111213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17363.8486328125</v>
+        <v>2905.095825195312</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9740021018420949</v>
       </c>
       <c r="E46" t="n">
-        <v>17363.49946732954</v>
+        <v>2904.990492876838</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C47" t="n">
-        <v>17012.1171875</v>
+        <v>2811.893432617188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9846591028300199</v>
+        <v>0.9287027295897988</v>
       </c>
       <c r="E47" t="n">
-        <v>17011.40003551136</v>
+        <v>2811.754552504596</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16666.3662109375</v>
+        <v>2721.094848632812</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E48" t="n">
-        <v>16665.82652698864</v>
+        <v>2720.961641199448</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16327.32861328125</v>
+        <v>2633.239624023438</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9928409132090482</v>
+        <v>0.9463629196671879</v>
       </c>
       <c r="E49" t="n">
-        <v>16326.98366477273</v>
+        <v>2633.057789522059</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C50" t="n">
-        <v>15994.82275390625</v>
+        <v>2547.629516601562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9717043077244478</v>
       </c>
       <c r="E50" t="n">
-        <v>15994.45543323864</v>
+        <v>2547.534280215993</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C51" t="n">
-        <v>15668.6826171875</v>
+        <v>2464.73583984375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9717699569814345</v>
       </c>
       <c r="E51" t="n">
-        <v>15668.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15348.83251953125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15348.31969105114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15034.828125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15034.50861150568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14727.1474609375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14726.63512073864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14425.1259765625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14424.66219815341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14128.830078125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9915909171104431</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14128.44557883523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13838.13134765625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13837.85511363636</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13553.19921875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9930681857195768</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13552.84330610795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13273.53759765625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13273.25941051136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12999.37158203125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12999.0693359375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12730.54833984375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9904545545578003</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12730.13929332386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12466.64794921875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12466.31019176136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12207.99462890625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12207.58673650568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11954.2099609375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9934090971946716</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11953.83158735795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11705.17138671875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11704.92223011364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11461.10107421875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11460.85147372159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11221.6689453125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.990340915593234</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11221.48135653409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10986.86181640625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10986.68110795455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10756.7490234375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10756.44193892045</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10530.93896484375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10530.65287642045</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10309.5263671875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10309.2451171875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10092.421875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10092.11843039773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9879.34521484375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9879.21084872159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9670.5546875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9670.431374289772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9465.91943359375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9465.7177734375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9265.22802734375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9264.964666193182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9068.72607421875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9796590967611833</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9068.206587357954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8875.4755859375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8875.1787109375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8686.07373046875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8685.963689630682</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8500.81396484375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9864772829142484</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8500.49227627841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8318.85888671875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9918181896209717</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8318.597301136364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01449275362318841</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01449275362318841</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1159420289855072</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1159420289855072</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9803835456009369</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7729468599033816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8019323671497585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8260869565217391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8309178743961353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8405797101449275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8502415458937198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8599033816425121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8792270531400966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8840579710144928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9855072463768116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9855072463768116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9951690821256038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9951690821256038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9762113892548675</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>2464.647346047794</v>
       </c>
     </row>
   </sheetData>
